--- a/data/trans_camb/P16B12-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B12-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B12-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B12-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>8,99</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8,99</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,82</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 43,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 38,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 28,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,48</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,18%</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 77,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 63,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 40,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 36,1</t>
         </is>
       </c>
     </row>
@@ -1074,27 +1074,27 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>-3,72</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-5,26</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,36</t>
         </is>
       </c>
     </row>
@@ -1112,12 +1112,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,51; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,21; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,05; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,89; 0,0</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,26%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,36%</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1188,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,51; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,21; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,05; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,89; 0,0</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,32</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 8,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 7,96</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,44%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,05</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,98; 8,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,98; 8,64</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 3,64</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 7,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 6,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 4,44</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 4,0</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,47%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,23</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 3,8</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 8,1</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 6,91</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 4,66</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 4,18</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 4,56</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 3,73</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 4,9</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 5,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 3,84</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 3,39</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,67%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 4,78</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 3,88</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 5,19</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 5,79</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 4,01</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 3,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B12-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B12-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>0,83</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,26</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,64</t>
+          <t>-6,38; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,41; 7,46</t>
+          <t>-1,79; 7,05</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 6,43</t>
+          <t>0,0; 7,71</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,44</t>
+          <t>-0,52; 4,35</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,0</t>
+          <t>-0,83; 4,52</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>-1,07%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>0,84%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>0,28%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>2,6%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>2,33%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>1,87%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>1,47%</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,8</t>
+          <t>-6,38; 0,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,42; 8,1</t>
+          <t>-1,83; 7,65</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 6,91</t>
+          <t>0,0; 8,36</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,66</t>
+          <t>-0,52; 4,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,18</t>
+          <t>-0,84; 4,75</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>2,16</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,56</t>
+          <t>0,0; 8,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,73</t>
+          <t>0,0; 9,3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,9</t>
+          <t>0,0; 13,16</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,07; 5,47</t>
+          <t>-1,61; 11,22</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,84</t>
+          <t>0,75; 7,68</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,39</t>
+          <t>-0,61; 6,76</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>2,23%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>0,0; 9,0</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,25</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 15,16</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 12,8</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 8,31</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 7,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 4,56</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 3,73</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,14; 4,9</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 5,47</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 3,84</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 3,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>2,05%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>0,54; 4,78</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-0,62; 3,88</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-0,14; 5,19</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>0,08; 5,79</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>0,55; 4,01</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>0,2; 3,52</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P16B12-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B12-Edad-trans_camb.xlsx
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,79</t>
+          <t>0,0; 41,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,67</t>
+          <t>0,0; 39,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,63</t>
+          <t>0,0; 29,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,48</t>
+          <t>0,0; 23,5</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,89</t>
+          <t>0,0; 71,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,71</t>
+          <t>0,0; 64,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,12</t>
+          <t>0,0; 40,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,1</t>
+          <t>0,0; 30,71</t>
         </is>
       </c>
     </row>
@@ -1112,12 +1112,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 0,0</t>
+          <t>-16,62; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-27,21; 0,0</t>
+          <t>-21,79; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 0,0</t>
+          <t>-12,78; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 0,0</t>
+          <t>-13,16; 0,0</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1188,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 0,0</t>
+          <t>-16,62; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,21; 0,0</t>
+          <t>-21,79; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 0,0</t>
+          <t>-12,78; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 0,0</t>
+          <t>-13,16; 0,0</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,0</t>
+          <t>0,0; 13,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,61</t>
+          <t>0,0; 13,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,62</t>
+          <t>0,0; 13,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,08</t>
+          <t>0,0; 13,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 8,25</t>
+          <t>0,97; 9,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 7,96</t>
+          <t>0,97; 8,83</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,28</t>
+          <t>0,0; 15,09</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,75</t>
+          <t>0,0; 16,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,15</t>
+          <t>0,0; 15,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,05</t>
+          <t>0,0; 15,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,98; 8,99</t>
+          <t>0,98; 10,01</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,98; 8,64</t>
+          <t>0,98; 9,69</t>
         </is>
       </c>
     </row>
@@ -1424,27 +1424,27 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 0,0</t>
+          <t>-5,45; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 7,05</t>
+          <t>-1,87; 6,56</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,71</t>
+          <t>0,0; 8,85</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 4,35</t>
+          <t>-0,85; 3,66</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 4,52</t>
+          <t>-0,97; 3,53</t>
         </is>
       </c>
     </row>
@@ -1500,27 +1500,27 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 0,0</t>
+          <t>-5,45; 0,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 7,65</t>
+          <t>-1,89; 7,12</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,36</t>
+          <t>0,0; 9,71</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 4,57</t>
+          <t>-0,86; 3,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 4,75</t>
+          <t>-0,98; 3,67</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,26</t>
+          <t>0,0; 9,85</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,3</t>
+          <t>0,0; 10,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,16</t>
+          <t>0,0; 10,41</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 11,22</t>
+          <t>-1,98; 8,65</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,68</t>
+          <t>0,74; 7,8</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 6,76</t>
+          <t>-0,34; 7,35</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,0</t>
+          <t>0,0; 10,93</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,25</t>
+          <t>0,0; 11,12</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,16</t>
+          <t>0,0; 11,62</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 12,8</t>
+          <t>-2,02; 9,47</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,75; 8,31</t>
+          <t>0,74; 8,45</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 7,3</t>
+          <t>-0,34; 7,99</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,56</t>
+          <t>0,47; 5,02</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,73</t>
+          <t>-0,73; 3,84</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,9</t>
+          <t>-0,01; 4,95</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,07; 5,47</t>
+          <t>0,04; 4,96</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,84</t>
+          <t>0,67; 3,73</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,39</t>
+          <t>0,09; 3,59</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,78</t>
+          <t>0,47; 5,29</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,88</t>
+          <t>-0,73; 4,0</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,19</t>
+          <t>-0,01; 5,25</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0,08; 5,79</t>
+          <t>0,05; 5,21</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,01</t>
+          <t>0,68; 3,89</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,52</t>
+          <t>0,09; 3,73</t>
         </is>
       </c>
     </row>
